--- a/reports/brutal_new_26_03_2020_19_29_46.xlsx
+++ b/reports/brutal_new_26_03_2020_19_29_46.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\raven-extension\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
     <sheet name="Analogies" sheetId="2" r:id="rId2"/>
     <sheet name="Transformations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -495,8 +500,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,13 +524,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -555,21 +580,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -616,7 +656,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,9 +688,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -682,6 +723,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -857,26 +899,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:F35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" customWidth="1"/>
+    <col min="7" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.514408743637874</v>
+        <v>0.51440874363787403</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -940,7 +977,7 @@
         <v>0.8895631067961165</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0.6856507230255839</v>
+        <v>0.68565072302558394</v>
       </c>
       <c r="F3" t="s">
         <v>73</v>
@@ -969,10 +1006,10 @@
         <v>116</v>
       </c>
       <c r="J3">
-        <v>0.751004016064257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0.75100401606425704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -986,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.810403832991102</v>
+        <v>0.81040383299110197</v>
       </c>
       <c r="F4" t="s">
         <v>72</v>
@@ -1001,10 +1038,10 @@
         <v>116</v>
       </c>
       <c r="J4">
-        <v>0.9349808767284495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.93498087672844954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>0.8566468253968254</v>
+        <v>0.85664682539682535</v>
       </c>
       <c r="F5" t="s">
         <v>74</v>
@@ -1036,7 +1073,7 @@
         <v>0.9112662013958126</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>0.5970123343724574</v>
+        <v>0.59701233437245738</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -1065,10 +1102,10 @@
         <v>116</v>
       </c>
       <c r="J6">
-        <v>0.9167450611476952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.91674506114769516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1082,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0.9233554616777309</v>
+        <v>0.92335546167773086</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -1097,10 +1134,10 @@
         <v>116</v>
       </c>
       <c r="J7">
-        <v>0.9591169255928046</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.95911692559280459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1114,7 +1151,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9422350188950873</v>
+        <v>0.94223501889508732</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -1129,10 +1166,10 @@
         <v>116</v>
       </c>
       <c r="J8">
-        <v>0.9820957406709385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>0.98209574067093852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1146,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0.8251819342872991</v>
+        <v>0.82518193428729913</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -1161,10 +1198,10 @@
         <v>116</v>
       </c>
       <c r="J9">
-        <v>0.9608433734939759</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0.96084337349397586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1196,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1210,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>0.8896015283842795</v>
+        <v>0.88960152838427953</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1225,10 +1262,10 @@
         <v>116</v>
       </c>
       <c r="J11">
-        <v>0.9697459584295612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0.96974595842956124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1257,10 +1294,10 @@
         <v>116</v>
       </c>
       <c r="J12">
-        <v>0.708060230292294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.70806023029229403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1274,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>0.5967164317727914</v>
+        <v>0.59671643177279143</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -1289,10 +1326,10 @@
         <v>116</v>
       </c>
       <c r="J13">
-        <v>0.7150227617602428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>0.71502276176024282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1306,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>0.9906648726755353</v>
+        <v>0.99066487267553527</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1321,10 +1358,10 @@
         <v>116</v>
       </c>
       <c r="J14">
-        <v>0.9887027658745617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>0.98870276587456174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1338,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>0.9242077752368507</v>
+        <v>0.92420777523685071</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -1353,10 +1390,10 @@
         <v>116</v>
       </c>
       <c r="J15">
-        <v>0.9586913417052214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>0.95869134170522141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1370,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.9708333333333333</v>
+        <v>0.97083333333333333</v>
       </c>
       <c r="F16" t="s">
         <v>72</v>
@@ -1385,10 +1422,10 @@
         <v>116</v>
       </c>
       <c r="J16">
-        <v>0.9866369710467706</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>0.98663697104677062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1402,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>0.824687800192123</v>
+        <v>0.82468780019212296</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -1417,10 +1454,10 @@
         <v>116</v>
       </c>
       <c r="J17">
-        <v>0.931415360904187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>0.93141536090418697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1434,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.781750924784217</v>
+        <v>0.78175092478421704</v>
       </c>
       <c r="F18" t="s">
         <v>74</v>
@@ -1449,10 +1486,10 @@
         <v>116</v>
       </c>
       <c r="J18">
-        <v>0.874162323157111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0.87416232315711095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1466,7 +1503,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>0.7699154428126391</v>
+        <v>0.76991544281263913</v>
       </c>
       <c r="F19" t="s">
         <v>74</v>
@@ -1481,10 +1518,10 @@
         <v>116</v>
       </c>
       <c r="J19">
-        <v>0.9726699369306236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>0.97266993693062365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1498,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>0.9299258037922506</v>
+        <v>0.92992580379225065</v>
       </c>
       <c r="F20" t="s">
         <v>72</v>
@@ -1513,10 +1550,10 @@
         <v>116</v>
       </c>
       <c r="J20">
-        <v>0.9906958712928862</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>0.99069587129288617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1530,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>0.8574784237668592</v>
+        <v>0.85747842376685923</v>
       </c>
       <c r="F21" t="s">
         <v>74</v>
@@ -1545,10 +1582,10 @@
         <v>116</v>
       </c>
       <c r="J21">
-        <v>0.9625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1562,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>0.6613983707578185</v>
+        <v>0.66139837075781849</v>
       </c>
       <c r="F22" t="s">
         <v>72</v>
@@ -1577,10 +1614,10 @@
         <v>116</v>
       </c>
       <c r="J22">
-        <v>0.9821580288870009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>0.98215802888700088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1609,10 +1646,10 @@
         <v>116</v>
       </c>
       <c r="J23">
-        <v>0.9174454828660437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>0.91744548286604366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1626,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>0.7667351303832213</v>
+        <v>0.76673513038322127</v>
       </c>
       <c r="F24" t="s">
         <v>72</v>
@@ -1641,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="J24">
-        <v>0.9408502772643254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0.94085027726432535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1658,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>0.860497298296401</v>
+        <v>0.86049729829640098</v>
       </c>
       <c r="F25" t="s">
         <v>72</v>
@@ -1676,7 +1713,7 @@
         <v>0.9569832402234637</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1690,7 +1727,7 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>0.8384447939469999</v>
+        <v>0.83844479394699989</v>
       </c>
       <c r="F26" t="s">
         <v>77</v>
@@ -1705,42 +1742,42 @@
         <v>116</v>
       </c>
       <c r="J26">
-        <v>0.923856939427468</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="2" customFormat="1">
-      <c r="A27" s="1" t="s">
+        <v>0.92385693942746805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="6">
         <v>2</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="6">
         <v>7</v>
       </c>
-      <c r="E27" s="2">
-        <v>0.9486900642609986</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="6">
+        <v>0.94869006426099856</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="G27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.932050362807239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="I27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.93205036280723896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1769,10 +1806,10 @@
         <v>116</v>
       </c>
       <c r="J28">
-        <v>0.9856396907586525</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>0.98563969075865254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1786,7 +1823,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>0.7617142055349742</v>
+        <v>0.76171420553497415</v>
       </c>
       <c r="F29" t="s">
         <v>79</v>
@@ -1801,10 +1838,10 @@
         <v>116</v>
       </c>
       <c r="J29">
-        <v>0.9779261635901496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>0.97792616359014961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1818,7 +1855,7 @@
         <v>7</v>
       </c>
       <c r="E30">
-        <v>0.9511944026002739</v>
+        <v>0.95119440260027388</v>
       </c>
       <c r="F30" t="s">
         <v>80</v>
@@ -1836,7 +1873,7 @@
         <v>0.9830456140910051</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1850,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>0.9720359762992825</v>
+        <v>0.97203597629928251</v>
       </c>
       <c r="F31" t="s">
         <v>79</v>
@@ -1868,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1897,10 +1934,10 @@
         <v>116</v>
       </c>
       <c r="J32">
-        <v>0.9253511353826971</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>0.92535113538269709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1914,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.8292861687360278</v>
+        <v>0.82928616873602778</v>
       </c>
       <c r="F33" t="s">
         <v>82</v>
@@ -1929,10 +1966,10 @@
         <v>116</v>
       </c>
       <c r="J33">
-        <v>0.9248115474592724</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>0.92481154745927241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1961,10 +1998,10 @@
         <v>116</v>
       </c>
       <c r="J34">
-        <v>0.7679191919191919</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>0.76791919191919189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>0.7317845225579376</v>
+        <v>0.73178452255793758</v>
       </c>
       <c r="F35" t="s">
         <v>79</v>
@@ -1993,10 +2030,10 @@
         <v>116</v>
       </c>
       <c r="J35">
-        <v>0.9001864922247088</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>0.90018649222470881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.8734653433531334</v>
+        <v>0.87346534335313342</v>
       </c>
       <c r="F36" t="s">
         <v>83</v>
@@ -2025,10 +2062,10 @@
         <v>116</v>
       </c>
       <c r="J36">
-        <v>0.947481940174467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>0.94748194017446696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -2042,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>0.8114584628785311</v>
+        <v>0.81145846287853107</v>
       </c>
       <c r="F37" t="s">
         <v>81</v>
@@ -2057,10 +2094,10 @@
         <v>116</v>
       </c>
       <c r="J37">
-        <v>0.932359614748916</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>0.93235961474891604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <v>0.9716725549338512</v>
+        <v>0.97167255493385118</v>
       </c>
       <c r="F38" t="s">
         <v>84</v>
@@ -2089,10 +2126,10 @@
         <v>116</v>
       </c>
       <c r="J38">
-        <v>0.9381485695777985</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>0.93814856957779846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -2106,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>0.9703846076810256</v>
+        <v>0.97038460768102563</v>
       </c>
       <c r="F39" t="s">
         <v>85</v>
@@ -2121,10 +2158,10 @@
         <v>116</v>
       </c>
       <c r="J39">
-        <v>0.9766239643528511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>0.97662396435285115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -2138,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>0.9095485893039192</v>
+        <v>0.90954858930391924</v>
       </c>
       <c r="F40" t="s">
         <v>86</v>
@@ -2153,10 +2190,10 @@
         <v>116</v>
       </c>
       <c r="J40">
-        <v>0.9877078024511589</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>0.98770780245115886</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2170,7 +2207,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>0.8694897615128954</v>
+        <v>0.86948976151289536</v>
       </c>
       <c r="F41" t="s">
         <v>82</v>
@@ -2185,10 +2222,10 @@
         <v>116</v>
       </c>
       <c r="J41">
-        <v>0.9915458937198067</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>0.99154589371980673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -2202,7 +2239,7 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>0.8473829127288334</v>
+        <v>0.84738291272883337</v>
       </c>
       <c r="F42" t="s">
         <v>83</v>
@@ -2217,10 +2254,10 @@
         <v>116</v>
       </c>
       <c r="J42">
-        <v>0.9777661064425771</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>0.97776610644257711</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -2234,7 +2271,7 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>0.8438587085976432</v>
+        <v>0.84385870859764323</v>
       </c>
       <c r="F43" t="s">
         <v>87</v>
@@ -2249,10 +2286,10 @@
         <v>116</v>
       </c>
       <c r="J43">
-        <v>0.8380139069335163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>0.83801390693351629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2266,7 +2303,7 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>0.8700551207303344</v>
+        <v>0.87005512073033442</v>
       </c>
       <c r="F44" t="s">
         <v>88</v>
@@ -2281,42 +2318,42 @@
         <v>116</v>
       </c>
       <c r="J44">
-        <v>0.8882664727314979</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="2" customFormat="1">
-      <c r="A45" s="1" t="s">
+        <v>0.88826647273149795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>4</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="4">
         <v>2</v>
       </c>
-      <c r="E45" s="2">
-        <v>0.7162701412060168</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E45" s="4">
+        <v>0.71627014120601684</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H45" s="2" t="s">
+      <c r="G45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0.9757869249394673</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="I45" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0.97578692493946728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2330,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.7855746701529804</v>
+        <v>0.78557467015298044</v>
       </c>
       <c r="F46" t="s">
         <v>90</v>
@@ -2345,10 +2382,10 @@
         <v>116</v>
       </c>
       <c r="J46">
-        <v>0.9539184315041748</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>0.95391843150417477</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2362,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>0.850103917124592</v>
+        <v>0.85010391712459199</v>
       </c>
       <c r="F47" t="s">
         <v>90</v>
@@ -2377,10 +2414,10 @@
         <v>116</v>
       </c>
       <c r="J47">
-        <v>0.9054851680449132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>0.90548516804491319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -2394,7 +2431,7 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>0.8536255277290897</v>
+        <v>0.85362552772908973</v>
       </c>
       <c r="F48" t="s">
         <v>91</v>
@@ -2409,42 +2446,42 @@
         <v>117</v>
       </c>
       <c r="J48">
-        <v>0.8190874696033024</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="2" customFormat="1">
-      <c r="A49" s="1" t="s">
+        <v>0.81908746960330236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="6">
         <v>6</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="6">
         <v>8</v>
       </c>
-      <c r="E49" s="2">
-        <v>0.5849564263593491</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="E49" s="6">
+        <v>0.58495642635934908</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="G49" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0.8715887286790365</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="I49" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.87158872867903647</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -2458,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>0.8946659053487014</v>
+        <v>0.89466590534870138</v>
       </c>
       <c r="F50" t="s">
         <v>93</v>
@@ -2476,7 +2513,7 @@
         <v>0.8668436074422603</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2490,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="E51">
-        <v>0.8909301476451115</v>
+        <v>0.89093014764511147</v>
       </c>
       <c r="F51" t="s">
         <v>94</v>
@@ -2505,10 +2542,10 @@
         <v>117</v>
       </c>
       <c r="J51">
-        <v>0.907516846741157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>0.90751684674115696</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -2522,7 +2559,7 @@
         <v>8</v>
       </c>
       <c r="E52">
-        <v>0.9421405779451887</v>
+        <v>0.94214057794518868</v>
       </c>
       <c r="F52" t="s">
         <v>93</v>
@@ -2537,74 +2574,74 @@
         <v>117</v>
       </c>
       <c r="J52">
-        <v>0.9277610865134585</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="2" customFormat="1">
-      <c r="A53" s="1" t="s">
+        <v>0.92776108651345846</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="4">
         <v>2</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="4">
         <v>5</v>
       </c>
-      <c r="E53" s="2">
-        <v>0.6285865681629867</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="E53" s="4">
+        <v>0.62858656816298675</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H53" s="2" t="s">
+      <c r="G53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J53" s="2">
+      <c r="I53" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" s="4">
         <v>0.931936865049242</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="2" customFormat="1">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
         <v>3</v>
       </c>
-      <c r="E54" s="2">
-        <v>0.8859302199588255</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="E54" s="4">
+        <v>0.88593021995882548</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J54" s="2">
-        <v>0.696244017836075</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="J54" s="4">
+        <v>0.69624401783607504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -2618,7 +2655,7 @@
         <v>5</v>
       </c>
       <c r="E55">
-        <v>0.7012808013336478</v>
+        <v>0.70128080133364779</v>
       </c>
       <c r="F55" t="s">
         <v>96</v>
@@ -2633,10 +2670,10 @@
         <v>116</v>
       </c>
       <c r="J55">
-        <v>0.9164320755311275</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>0.91643207553112749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -2650,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0.6475950772569946</v>
+        <v>0.64759507725699461</v>
       </c>
       <c r="F56" t="s">
         <v>97</v>
@@ -2665,10 +2702,10 @@
         <v>116</v>
       </c>
       <c r="J56">
-        <v>0.8387021217966382</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>0.83870212179663817</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,7 +2719,7 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <v>0.8482581892653311</v>
+        <v>0.84825818926533114</v>
       </c>
       <c r="F57" t="s">
         <v>98</v>
@@ -2697,10 +2734,10 @@
         <v>117</v>
       </c>
       <c r="J57">
-        <v>0.8216820524545809</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>0.82168205245458092</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,7 +2751,7 @@
         <v>3</v>
       </c>
       <c r="E58">
-        <v>0.8793475099438893</v>
+        <v>0.87934750994388933</v>
       </c>
       <c r="F58" t="s">
         <v>99</v>
@@ -2729,10 +2766,10 @@
         <v>116</v>
       </c>
       <c r="J58">
-        <v>0.9272302591922845</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>0.92723025919228452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -2761,10 +2798,10 @@
         <v>117</v>
       </c>
       <c r="J59">
-        <v>0.7273318567436214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>0.72733185674362144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -2778,7 +2815,7 @@
         <v>4</v>
       </c>
       <c r="E60">
-        <v>0.7407444008871535</v>
+        <v>0.74074440088715354</v>
       </c>
       <c r="F60" t="s">
         <v>100</v>
@@ -2793,71 +2830,69 @@
         <v>116</v>
       </c>
       <c r="J60">
-        <v>0.8159728910290708</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="2" customFormat="1">
-      <c r="A61" s="1" t="s">
+        <v>0.81597289102907078</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="6">
         <v>5</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="6">
         <v>4</v>
       </c>
-      <c r="E61" s="2">
-        <v>0.6663738515990698</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="E61" s="6">
+        <v>0.66637385159906981</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H61" s="2" t="s">
+      <c r="G61" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J61" s="2">
-        <v>0.8165728077232501</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="3" t="s">
+      <c r="I61" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J61" s="6">
+        <v>0.81657280772325014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2877,7 +2912,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -2894,7 +2929,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -2911,7 +2946,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,7 +2963,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2948,7 +2983,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
@@ -2965,7 +3000,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -2982,7 +3017,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -2999,7 +3034,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -3016,7 +3051,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
@@ -3033,7 +3068,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -3050,7 +3085,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -3067,7 +3102,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -3084,7 +3119,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -3101,7 +3136,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
@@ -3118,7 +3153,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -3135,7 +3170,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
@@ -3152,7 +3187,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -3169,7 +3204,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -3186,7 +3221,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -3203,7 +3238,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>98</v>
       </c>
@@ -3220,7 +3255,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -3237,7 +3272,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -3254,7 +3289,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
@@ -3271,7 +3306,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>85</v>
       </c>
@@ -3288,7 +3323,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>92</v>
       </c>
@@ -3305,7 +3340,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>97</v>
       </c>
@@ -3322,7 +3357,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
@@ -3339,7 +3374,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>91</v>
       </c>
@@ -3356,7 +3391,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
@@ -3373,7 +3408,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
@@ -3396,22 +3431,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3431,7 +3463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -3448,7 +3480,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -3465,7 +3497,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
@@ -3482,7 +3514,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>106</v>
       </c>
@@ -3502,7 +3534,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
@@ -3519,7 +3551,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
@@ -3536,7 +3568,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -3553,7 +3585,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
@@ -3573,7 +3605,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -3593,7 +3625,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>115</v>
       </c>
@@ -3610,7 +3642,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
